--- a/storage/app/reports/cong-no.xlsx
+++ b/storage/app/reports/cong-no.xlsx
@@ -712,6 +712,158 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -721,158 +873,6 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -964,7 +964,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="2E353D"/>
+        <a:sysClr val="windowText" lastClr="464646"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -1225,13 +1225,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O18"/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.42578125" customWidth="1"/>
     <col min="2" max="2" width="12.5703125" customWidth="1"/>
@@ -1244,6 +1244,7 @@
     <col min="10" max="10" width="4.42578125" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="2.85546875" hidden="1" customWidth="1"/>
     <col min="12" max="14" width="13.140625" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="17.25" x14ac:dyDescent="0.25">
@@ -1253,16 +1254,16 @@
       <c r="D1" s="1"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
     </row>
     <row r="2" spans="1:15" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -1271,16 +1272,16 @@
       <c r="D2" s="1"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
@@ -1289,16 +1290,16 @@
       <c r="D3" s="1"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
@@ -1307,16 +1308,16 @@
       <c r="D4" s="1"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="68"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -1347,8 +1348,8 @@
       <c r="J6" s="5"/>
       <c r="K6" s="6"/>
       <c r="L6" s="7"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
+      <c r="M6" s="69"/>
+      <c r="N6" s="69"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -1365,8 +1366,8 @@
       <c r="J7" s="9"/>
       <c r="K7" s="10"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
+      <c r="M7" s="63"/>
+      <c r="N7" s="63"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -1385,8 +1386,8 @@
       <c r="L8" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="M8" s="21"/>
-      <c r="N8" s="22"/>
+      <c r="M8" s="61"/>
+      <c r="N8" s="62"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
@@ -1405,161 +1406,161 @@
       <c r="N9" s="14"/>
     </row>
     <row r="10" spans="1:15" ht="20.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="29" t="s">
+      <c r="E10" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="29" t="s">
+      <c r="F10" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="29" t="s">
+      <c r="G10" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="H10" s="29" t="s">
+      <c r="H10" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="I10" s="29" t="s">
+      <c r="I10" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="J10" s="30" t="s">
+      <c r="J10" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="K10" s="31"/>
-      <c r="L10" s="30" t="s">
+      <c r="K10" s="57"/>
+      <c r="L10" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="M10" s="32"/>
-      <c r="N10" s="33" t="s">
+      <c r="M10" s="58"/>
+      <c r="N10" s="59" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="34"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="37" t="s">
+      <c r="A11" s="65"/>
+      <c r="B11" s="66"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="37" t="s">
+      <c r="K11" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="L11" s="38" t="s">
+      <c r="L11" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="M11" s="38" t="s">
+      <c r="M11" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="N11" s="39"/>
+      <c r="N11" s="60"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="25" t="s">
+      <c r="E12" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="25" t="s">
+      <c r="F12" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="25" t="s">
+      <c r="G12" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="H12" s="25" t="s">
+      <c r="H12" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="I12" s="25" t="s">
+      <c r="I12" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="J12" s="26" t="s">
+      <c r="J12" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="K12" s="25" t="s">
+      <c r="K12" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="L12" s="25" t="s">
+      <c r="L12" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="M12" s="25" t="s">
+      <c r="M12" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="N12" s="27" t="s">
+      <c r="N12" s="20" t="s">
         <v>25</v>
       </c>
       <c r="O12" s="15"/>
     </row>
     <row r="13" spans="1:15" s="16" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A13" s="40"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="48"/>
-      <c r="N13" s="49"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="32"/>
     </row>
     <row r="14" spans="1:15" s="16" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A14" s="50"/>
-      <c r="B14" s="51"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="58"/>
-      <c r="M14" s="58"/>
-      <c r="N14" s="59"/>
+      <c r="A14" s="33"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="42"/>
     </row>
     <row r="15" spans="1:15" s="16" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="60"/>
-      <c r="B15" s="61"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="67"/>
-      <c r="J15" s="68"/>
-      <c r="K15" s="68"/>
-      <c r="L15" s="64"/>
-      <c r="M15" s="64"/>
-      <c r="N15" s="69"/>
+      <c r="A15" s="43"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="47"/>
+      <c r="M15" s="47"/>
+      <c r="N15" s="52"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
@@ -1592,8 +1593,8 @@
       <c r="L17" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="M17" s="21"/>
-      <c r="N17" s="22"/>
+      <c r="M17" s="61"/>
+      <c r="N17" s="62"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
@@ -1608,18 +1609,17 @@
       <c r="J18" s="5"/>
       <c r="K18" s="10"/>
       <c r="L18" s="7"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-    </row>
+      <c r="M18" s="53"/>
+      <c r="N18" s="53"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="G1:N1"/>
+    <mergeCell ref="G2:N2"/>
+    <mergeCell ref="G3:N3"/>
+    <mergeCell ref="G4:N4"/>
+    <mergeCell ref="M6:N6"/>
     <mergeCell ref="M7:N7"/>
     <mergeCell ref="M8:N8"/>
     <mergeCell ref="A10:A11"/>
@@ -1629,11 +1629,13 @@
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="G10:G11"/>
-    <mergeCell ref="G1:N1"/>
-    <mergeCell ref="G2:N2"/>
-    <mergeCell ref="G3:N3"/>
-    <mergeCell ref="G4:N4"/>
-    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="M17:N17"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="88" fitToHeight="0" orientation="landscape" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
